--- a/data/tourism.xlsx
+++ b/data/tourism.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Imanuel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Imanuel\Documents\Personal\CODE\Projects\Next JS\lokatravel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108E471-C5B1-40DB-A6CD-F1C1169F9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884ADA3C-C80A-460E-9E53-FB068CFB80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5381,11 +5381,15 @@
   </sheetPr>
   <dimension ref="A1:M536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D211" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
